--- a/covid-ed-ig/ValueSet-who-performance-status.xlsx
+++ b/covid-ed-ig/ValueSet-who-performance-status.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>001</t>
   </si>
   <si>
     <t>Description</t>

--- a/covid-ed-ig/ValueSet-who-performance-status.xlsx
+++ b/covid-ed-ig/ValueSet-who-performance-status.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>001</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
